--- a/Assets/Resources/ExcelDB/StageDB.xlsx
+++ b/Assets/Resources/ExcelDB/StageDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONG\Desktop\개발\TIL\20241126\외부데이터로드\ExcelToJsonWizard.v1.0.6\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86C0F64-59CF-4C8B-9B62-930C1A5C68FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B95C87-E474-4E2E-91DE-CBE9C78E48BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F213A0E4-2BEB-43C5-AC4B-881D0214E9F5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -64,11 +64,47 @@
     <t>익숙해지는 주변</t>
   </si>
   <si>
-    <t>5000,5001,5002</t>
+    <t>key</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>key</t>
+    <t>StageType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageMapPath</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,5001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5002,5003</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,5002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Stage/CasthleStageMap</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SummonEnemyIDList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SummonBossID</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1056,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0487E-DAEB-422A-AE81-05E9C8FBE3C4}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1067,14 +1103,17 @@
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
     <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1092,10 +1131,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1117,8 +1165,17 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1140,8 +1197,17 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7000</v>
       </c>
@@ -1161,10 +1227,19 @@
         <v>100</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5500</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7001</v>
       </c>
@@ -1184,10 +1259,19 @@
         <v>100</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5501</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7002</v>
       </c>
@@ -1207,7 +1291,16 @@
         <v>100</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5500</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ExcelDB/StageDB.xlsx
+++ b/Assets/Resources/ExcelDB/StageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B95C87-E474-4E2E-91DE-CBE9C78E48BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729D967D-D8DA-4E25-B8FF-ABE83B39CA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F213A0E4-2BEB-43C5-AC4B-881D0214E9F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F213A0E4-2BEB-43C5-AC4B-881D0214E9F5}"/>
   </bookViews>
   <sheets>
     <sheet name="StageDB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -88,23 +88,35 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>Prefabs/Stage/CasthleStageMap</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SummonEnemyIDList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SummonBossID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,5001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>5002,5003</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>5000,5002</t>
+    <t>5000,5001,5002,5003</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Stage/CasthleStageMap</t>
+    <t>5001,5003</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SummonEnemyIDList</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SummonBossID</t>
+    <t>50005002</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1092,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0487E-DAEB-422A-AE81-05E9C8FBE3C4}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1131,10 +1143,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>15</v>
@@ -1198,7 +1210,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -1224,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
@@ -1236,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1256,19 +1268,19 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1">
-        <v>5501</v>
+        <v>5500</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1288,10 +1300,10 @@
         <v>13</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1">
         <v>5500</v>
@@ -1300,8 +1312,284 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7003</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5500</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7004</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5500</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7005</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>120</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5501</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7006</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>1.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5501</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7007</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1.2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>120</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5501</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7008</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>1.2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5501</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7009</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1.2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>120</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5501</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Assets/Resources/ExcelDB/StageDB.xlsx
+++ b/Assets/Resources/ExcelDB/StageDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729D967D-D8DA-4E25-B8FF-ABE83B39CA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEBE027-76AF-4846-9950-FA941018FC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F213A0E4-2BEB-43C5-AC4B-881D0214E9F5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -81,10 +81,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,5001</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1107,7 +1103,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1143,10 +1139,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>15</v>
@@ -1210,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -1239,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1">
         <v>5500</v>
@@ -1248,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1271,7 +1267,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1">
         <v>5500</v>
@@ -1280,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1303,7 +1299,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1">
         <v>5500</v>
@@ -1312,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1335,7 +1331,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1">
         <v>5500</v>
@@ -1344,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1367,7 +1363,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1">
         <v>5500</v>
@@ -1376,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1399,7 +1395,7 @@
         <v>120</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1">
         <v>5501</v>
@@ -1408,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1431,7 +1427,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1">
         <v>5501</v>
@@ -1440,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1463,7 +1459,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1">
         <v>5501</v>
@@ -1472,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1495,7 +1491,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1">
         <v>5501</v>
@@ -1504,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1527,7 +1523,7 @@
         <v>120</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1">
         <v>5501</v>
@@ -1536,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">

--- a/Assets/Resources/ExcelDB/StageDB.xlsx
+++ b/Assets/Resources/ExcelDB/StageDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEBE027-76AF-4846-9950-FA941018FC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3DD11A-BBCC-467E-B109-AF57121399BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F213A0E4-2BEB-43C5-AC4B-881D0214E9F5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -76,18 +76,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>StageMapPath</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Stage/CasthleStageMap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SummonEnemyIDList</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -114,6 +102,21 @@
   <si>
     <t>50005002</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum&lt;Sizes&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casthle</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1106,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1139,16 +1142,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1180,7 +1183,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1206,13 +1209,13 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1235,7 +1238,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>5500</v>
@@ -1244,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1267,7 +1270,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1">
         <v>5500</v>
@@ -1276,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1299,7 +1302,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1">
         <v>5500</v>
@@ -1308,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1331,7 +1334,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1">
         <v>5500</v>
@@ -1340,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1363,7 +1366,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1">
         <v>5500</v>
@@ -1372,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1395,7 +1398,7 @@
         <v>120</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1">
         <v>5501</v>
@@ -1404,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1427,7 +1430,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1">
         <v>5501</v>
@@ -1436,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1459,7 +1462,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1">
         <v>5501</v>
@@ -1468,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1491,7 +1494,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1">
         <v>5501</v>
@@ -1500,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1523,7 +1526,7 @@
         <v>120</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1">
         <v>5501</v>
@@ -1532,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">

--- a/Assets/Resources/ExcelDB/StageDB.xlsx
+++ b/Assets/Resources/ExcelDB/StageDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdleSoul\Assets\Resources\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONG\Desktop\개발\TIL\외부데이터로드\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3DD11A-BBCC-467E-B109-AF57121399BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EE459D-A2B4-47A6-B15F-DB1EB2558BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F213A0E4-2BEB-43C5-AC4B-881D0214E9F5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -55,15 +55,6 @@
     <t>List&lt;int&gt;</t>
   </si>
   <si>
-    <t>처음의 숲</t>
-  </si>
-  <si>
-    <t>미숙한자들의 길</t>
-  </si>
-  <si>
-    <t>익숙해지는 주변</t>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -100,14 +91,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>50005002</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum&lt;Sizes&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>StageName</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -117,13 +100,87 @@
   </si>
   <si>
     <t>Forest</t>
+  </si>
+  <si>
+    <t>처음의 숲 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음의 숲 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음의 숲 3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음의 숲 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 숲으로.. 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 숲으로.. 2</t>
+  </si>
+  <si>
+    <t>침략된 마을 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>침략된 마을 2</t>
+  </si>
+  <si>
+    <t>침략된 마을 3</t>
+  </si>
+  <si>
+    <t>5000,5002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기습에 당하다 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>침략된 마을 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>되살아난 영혼 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>되살아난 영혼 2</t>
+  </si>
+  <si>
+    <t>되살아난 영혼 3</t>
+  </si>
+  <si>
+    <t>되살아난 영혼 4</t>
+  </si>
+  <si>
+    <t>기습에 당하다 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum&lt;StageNameType&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +342,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -718,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +792,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1106,7 +1174,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1124,7 +1192,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1142,16 +1210,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1177,13 +1245,13 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1209,13 +1277,13 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1232,13 +1300,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1">
         <v>5500</v>
@@ -1247,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1261,16 +1329,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1">
         <v>5500</v>
@@ -1279,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1296,13 +1364,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1">
         <v>5500</v>
@@ -1311,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1328,13 +1396,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1">
         <v>5500</v>
@@ -1343,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1357,16 +1425,16 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1">
         <v>5500</v>
@@ -1375,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1389,25 +1457,25 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F9">
         <v>120</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1">
-        <v>5501</v>
+        <v>5500</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1421,16 +1489,16 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1">
         <v>5501</v>
@@ -1438,8 +1506,8 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
-        <v>27</v>
+      <c r="J10" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1453,16 +1521,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F11">
         <v>120</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1">
         <v>5501</v>
@@ -1471,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1485,25 +1553,25 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H12" s="1">
-        <v>5501</v>
+        <v>5500</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1517,76 +1585,244 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F13">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H13" s="1">
-        <v>5501</v>
+        <v>5500</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="A14">
+        <v>7010</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>80</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5501</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="A15">
+        <v>7011</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>80</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5500</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7012</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1.6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5501</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7013</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1.6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17">
+        <v>90</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5501</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7014</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1.7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5501</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7015</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>1.7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5501</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
